--- a/data/AccidentesBicicletas_2024.xlsx
+++ b/data/AccidentesBicicletas_2024.xlsx
@@ -65722,4 +65722,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{2347d7b3-0f05-4210-b88d-8a6001436f71}" enabled="1" method="Privileged" siteId="{3f2359a9-a409-47af-a674-1b1493d40aec}" removed="0"/>
+</clbl:labelList>
 </file>